--- a/biology/Botanique/Geranium_cinereum/Geranium_cinereum.xlsx
+++ b/biology/Botanique/Geranium_cinereum/Geranium_cinereum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Géranium cendré (Geranium cinereum Cav., 1787) est un géranium des montagnes proches de la Méditerranée occidentale, notamment les Pyrénées où on le trouve de l'ouest de la chaîne jusqu'à la Catalogne occidentale[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Géranium cendré (Geranium cinereum Cav., 1787) est un géranium des montagnes proches de la Méditerranée occidentale, notamment les Pyrénées où on le trouve de l'ouest de la chaîne jusqu'à la Catalogne occidentale.
 </t>
         </is>
       </c>
